--- a/TimeTable (Second_Year).xlsx
+++ b/TimeTable (Second_Year).xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CTEC21043 / PR002</t>
+          <t>CTEC21043 / PR002 / SL013</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -567,7 +567,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CTEC21043 / PR002</t>
+          <t>CTEC21043 / PR002 / SL013</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ETEC21013 / PR002</t>
+          <t>ETEC21013 / PR002 / SL011</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ETEC21013 / PR002</t>
+          <t>ETEC21013 / PR002 / SL011</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -721,7 +721,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ETEC21053 / PR002</t>
+          <t>ETEC21053 / PR002 / SL004</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ETEC21053 / PR002</t>
+          <t>ETEC21053 / PR002 / SL004</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSCI21013 / PR002</t>
+          <t>CSCI21013 / PR002 / SL018</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSCI21013 / PR002</t>
+          <t>CSCI21013 / PR002 / SL018</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -914,7 +914,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CSCI21023 / CL001</t>
+          <t>CSCI21023 / CL001 / PB008</t>
         </is>
       </c>
     </row>
